--- a/patient_data/patient_82.xlsx
+++ b/patient_data/patient_82.xlsx
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1670,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
